--- a/model_feature/discard_feature.xlsx
+++ b/model_feature/discard_feature.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\專題\model_feature\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8C62DE3-4D1C-476A-B5E9-F1CB5ED1CACC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDF12C78-0518-4562-A2FB-CA30A496E8B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,6 +20,9 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
@@ -2331,730 +2334,736 @@
     <t>Left North (4)</t>
   </si>
   <si>
-    <t>Dora character1(2)</t>
-  </si>
-  <si>
-    <t>Dora character2(2)</t>
-  </si>
-  <si>
-    <t>Dora character3(2)</t>
-  </si>
-  <si>
-    <t>Dora character4(2)</t>
-  </si>
-  <si>
-    <t>Dora character5(2)</t>
-  </si>
-  <si>
-    <t>Dora character6(2)</t>
-  </si>
-  <si>
-    <t>Dora character7(2)</t>
-  </si>
-  <si>
-    <t>Dora character8(2)</t>
-  </si>
-  <si>
-    <t>Dora character9(2)</t>
-  </si>
-  <si>
-    <t>Dora circle1(2)</t>
-  </si>
-  <si>
-    <t>Dora circle2(2)</t>
-  </si>
-  <si>
-    <t>Dora circle3(2)</t>
-  </si>
-  <si>
-    <t>Dora circle4(2)</t>
-  </si>
-  <si>
-    <t>Dora circle5(2)</t>
-  </si>
-  <si>
-    <t>Dora circle6(2)</t>
-  </si>
-  <si>
-    <t>Dora circle7(2)</t>
-  </si>
-  <si>
-    <t>Dora circle8(2)</t>
-  </si>
-  <si>
-    <t>Dora circle9(2)</t>
-  </si>
-  <si>
-    <t>Dora bamboo1(2)</t>
-  </si>
-  <si>
-    <t>Dora bamboo2(2)</t>
-  </si>
-  <si>
-    <t>Dora bamboo3(2)</t>
-  </si>
-  <si>
-    <t>Dora bamboo4(2)</t>
-  </si>
-  <si>
-    <t>Dora bamboo5(2)</t>
-  </si>
-  <si>
-    <t>Dora bamboo6(2)</t>
-  </si>
-  <si>
-    <t>Dora bamboo7(2)</t>
-  </si>
-  <si>
-    <t>Dora bamboo8(2)</t>
-  </si>
-  <si>
-    <t>Dora bamboo9(2)</t>
-  </si>
-  <si>
-    <t>Dora Red(2)</t>
-  </si>
-  <si>
-    <t>Dora Green (2)</t>
-  </si>
-  <si>
-    <t>Dora White (2)</t>
-  </si>
-  <si>
-    <t>Dora East (2)</t>
-  </si>
-  <si>
-    <t>Dora South (2)</t>
-  </si>
-  <si>
-    <t>Dora West (2)</t>
-  </si>
-  <si>
-    <t>Dora North (2)</t>
-  </si>
-  <si>
-    <t>Dora character1(3)</t>
-  </si>
-  <si>
-    <t>Dora character2(3)</t>
-  </si>
-  <si>
-    <t>Dora character3(3)</t>
-  </si>
-  <si>
-    <t>Dora character4(3)</t>
-  </si>
-  <si>
-    <t>Dora character5(3)</t>
-  </si>
-  <si>
-    <t>Dora character6(3)</t>
-  </si>
-  <si>
-    <t>Dora character7(3)</t>
-  </si>
-  <si>
-    <t>Dora character8(3)</t>
-  </si>
-  <si>
-    <t>Dora character9(3)</t>
-  </si>
-  <si>
-    <t>Dora circle1(3)</t>
-  </si>
-  <si>
-    <t>Dora circle2(3)</t>
-  </si>
-  <si>
-    <t>Dora circle3(3)</t>
-  </si>
-  <si>
-    <t>Dora circle4(3)</t>
-  </si>
-  <si>
-    <t>Dora circle5(3)</t>
-  </si>
-  <si>
-    <t>Dora circle6(3)</t>
-  </si>
-  <si>
-    <t>Dora circle7(3)</t>
-  </si>
-  <si>
-    <t>Dora circle8(3)</t>
-  </si>
-  <si>
-    <t>Dora circle9(3)</t>
-  </si>
-  <si>
-    <t>Dora bamboo1(3)</t>
-  </si>
-  <si>
-    <t>Dora bamboo2(3)</t>
-  </si>
-  <si>
-    <t>Dora bamboo3(3)</t>
-  </si>
-  <si>
-    <t>Dora bamboo4(3)</t>
-  </si>
-  <si>
-    <t>Dora bamboo5(3)</t>
-  </si>
-  <si>
-    <t>Dora bamboo6(3)</t>
-  </si>
-  <si>
-    <t>Dora bamboo7(3)</t>
-  </si>
-  <si>
-    <t>Dora bamboo8(3)</t>
-  </si>
-  <si>
-    <t>Dora bamboo9(3)</t>
-  </si>
-  <si>
-    <t>Dora Red(3)</t>
-  </si>
-  <si>
-    <t>Dora Green (3)</t>
-  </si>
-  <si>
-    <t>Dora White (3)</t>
-  </si>
-  <si>
-    <t>Dora East (3)</t>
-  </si>
-  <si>
-    <t>Dora South (3)</t>
-  </si>
-  <si>
-    <t>Dora West (3)</t>
-  </si>
-  <si>
-    <t>Dora North (3)</t>
-  </si>
-  <si>
-    <t>Dora character1(4)</t>
-  </si>
-  <si>
-    <t>Dora character2(4)</t>
-  </si>
-  <si>
-    <t>Dora character3(4)</t>
-  </si>
-  <si>
-    <t>Dora character4(4)</t>
-  </si>
-  <si>
-    <t>Dora character5(4)</t>
-  </si>
-  <si>
-    <t>Dora character6(4)</t>
-  </si>
-  <si>
-    <t>Dora character7(4)</t>
-  </si>
-  <si>
-    <t>Dora character8(4)</t>
-  </si>
-  <si>
-    <t>Dora character9(4)</t>
-  </si>
-  <si>
-    <t>Dora circle1(4)</t>
-  </si>
-  <si>
-    <t>Dora circle2(4)</t>
-  </si>
-  <si>
-    <t>Dora circle3(4)</t>
-  </si>
-  <si>
-    <t>Dora circle4(4)</t>
-  </si>
-  <si>
-    <t>Dora circle5(4)</t>
-  </si>
-  <si>
-    <t>Dora circle6(4)</t>
-  </si>
-  <si>
-    <t>Dora circle7(4)</t>
-  </si>
-  <si>
-    <t>Dora circle8(4)</t>
-  </si>
-  <si>
-    <t>Dora circle9(4)</t>
-  </si>
-  <si>
-    <t>Dora bamboo1(4)</t>
-  </si>
-  <si>
-    <t>Dora bamboo2(4)</t>
-  </si>
-  <si>
-    <t>Dora bamboo3(4)</t>
-  </si>
-  <si>
-    <t>Dora bamboo4(4)</t>
-  </si>
-  <si>
-    <t>Dora bamboo5(4)</t>
-  </si>
-  <si>
-    <t>Dora bamboo6(4)</t>
-  </si>
-  <si>
-    <t>Dora bamboo7(4)</t>
-  </si>
-  <si>
-    <t>Dora bamboo8(4)</t>
-  </si>
-  <si>
-    <t>Dora bamboo9(4)</t>
-  </si>
-  <si>
-    <t>Dora Red(4)</t>
-  </si>
-  <si>
-    <t>Dora Green (4)</t>
-  </si>
-  <si>
-    <t>Dora White (4)</t>
-  </si>
-  <si>
-    <t>Dora East (4)</t>
-  </si>
-  <si>
-    <t>Dora South (4)</t>
-  </si>
-  <si>
-    <t>Dora West (4)</t>
-  </si>
-  <si>
-    <t>Dora North (4)</t>
-  </si>
-  <si>
-    <t>Discard character1(1)</t>
-  </si>
-  <si>
-    <t>Discard character2(1)</t>
-  </si>
-  <si>
-    <t>Discard character3(1)</t>
-  </si>
-  <si>
-    <t>Discard character4(1)</t>
-  </si>
-  <si>
-    <t>Discard character5(1)</t>
-  </si>
-  <si>
-    <t>Discard character6(1)</t>
-  </si>
-  <si>
-    <t>Discard character7(1)</t>
-  </si>
-  <si>
-    <t>Discard character8(1)</t>
-  </si>
-  <si>
-    <t>Discard character9(1)</t>
-  </si>
-  <si>
-    <t>Discard circle1(1)</t>
-  </si>
-  <si>
-    <t>Discard circle2(1)</t>
-  </si>
-  <si>
-    <t>Discard circle3(1)</t>
-  </si>
-  <si>
-    <t>Discard circle4(1)</t>
-  </si>
-  <si>
-    <t>Discard circle5(1)</t>
-  </si>
-  <si>
-    <t>Discard circle6(1)</t>
-  </si>
-  <si>
-    <t>Discard circle7(1)</t>
-  </si>
-  <si>
-    <t>Discard circle8(1)</t>
-  </si>
-  <si>
-    <t>Discard circle9(1)</t>
-  </si>
-  <si>
-    <t>Discard bamboo1(1)</t>
-  </si>
-  <si>
-    <t>Discard bamboo2(1)</t>
-  </si>
-  <si>
-    <t>Discard bamboo3(1)</t>
-  </si>
-  <si>
-    <t>Discard bamboo4(1)</t>
-  </si>
-  <si>
-    <t>Discard bamboo5(1)</t>
-  </si>
-  <si>
-    <t>Discard bamboo6(1)</t>
-  </si>
-  <si>
-    <t>Discard bamboo7(1)</t>
-  </si>
-  <si>
-    <t>Discard bamboo8(1)</t>
-  </si>
-  <si>
-    <t>Discard bamboo9(1)</t>
-  </si>
-  <si>
-    <t>Discard Red(1)</t>
-  </si>
-  <si>
-    <t>Discard Green (1)</t>
-  </si>
-  <si>
-    <t>Discard White (1)</t>
-  </si>
-  <si>
-    <t>Discard East (1)</t>
-  </si>
-  <si>
-    <t>Discard South (1)</t>
-  </si>
-  <si>
-    <t>Discard West (1)</t>
-  </si>
-  <si>
-    <t>Discard North (1)</t>
-  </si>
-  <si>
-    <t>Discard character1(2)</t>
-  </si>
-  <si>
-    <t>Discard character2(2)</t>
-  </si>
-  <si>
-    <t>Discard character3(2)</t>
-  </si>
-  <si>
-    <t>Discard character4(2)</t>
-  </si>
-  <si>
-    <t>Discard character5(2)</t>
-  </si>
-  <si>
-    <t>Discard character6(2)</t>
-  </si>
-  <si>
-    <t>Discard character7(2)</t>
-  </si>
-  <si>
-    <t>Discard character8(2)</t>
-  </si>
-  <si>
-    <t>Discard character9(2)</t>
-  </si>
-  <si>
-    <t>Discard circle1(2)</t>
-  </si>
-  <si>
-    <t>Discard circle2(2)</t>
-  </si>
-  <si>
-    <t>Discard circle3(2)</t>
-  </si>
-  <si>
-    <t>Discard circle4(2)</t>
-  </si>
-  <si>
-    <t>Discard circle5(2)</t>
-  </si>
-  <si>
-    <t>Discard circle6(2)</t>
-  </si>
-  <si>
-    <t>Discard circle7(2)</t>
-  </si>
-  <si>
-    <t>Discard circle8(2)</t>
-  </si>
-  <si>
-    <t>Discard circle9(2)</t>
-  </si>
-  <si>
-    <t>Discard bamboo1(2)</t>
-  </si>
-  <si>
-    <t>Discard bamboo2(2)</t>
-  </si>
-  <si>
-    <t>Discard bamboo3(2)</t>
-  </si>
-  <si>
-    <t>Discard bamboo4(2)</t>
-  </si>
-  <si>
-    <t>Discard bamboo5(2)</t>
-  </si>
-  <si>
-    <t>Discard bamboo6(2)</t>
-  </si>
-  <si>
-    <t>Discard bamboo7(2)</t>
-  </si>
-  <si>
-    <t>Discard bamboo8(2)</t>
-  </si>
-  <si>
-    <t>Discard bamboo9(2)</t>
-  </si>
-  <si>
-    <t>Discard Red(2)</t>
-  </si>
-  <si>
-    <t>Discard Green (2)</t>
-  </si>
-  <si>
-    <t>Discard White (2)</t>
-  </si>
-  <si>
-    <t>Discard East (2)</t>
-  </si>
-  <si>
-    <t>Discard South (2)</t>
-  </si>
-  <si>
-    <t>Discard West (2)</t>
-  </si>
-  <si>
-    <t>Discard North (2)</t>
-  </si>
-  <si>
-    <t>Discard character1(3)</t>
-  </si>
-  <si>
-    <t>Discard character2(3)</t>
-  </si>
-  <si>
-    <t>Discard character3(3)</t>
-  </si>
-  <si>
-    <t>Discard character4(3)</t>
-  </si>
-  <si>
-    <t>Discard character5(3)</t>
-  </si>
-  <si>
-    <t>Discard character6(3)</t>
-  </si>
-  <si>
-    <t>Discard character7(3)</t>
-  </si>
-  <si>
-    <t>Discard character8(3)</t>
-  </si>
-  <si>
-    <t>Discard character9(3)</t>
-  </si>
-  <si>
-    <t>Discard circle1(3)</t>
-  </si>
-  <si>
-    <t>Discard circle2(3)</t>
-  </si>
-  <si>
-    <t>Discard circle3(3)</t>
-  </si>
-  <si>
-    <t>Discard circle4(3)</t>
-  </si>
-  <si>
-    <t>Discard circle5(3)</t>
-  </si>
-  <si>
-    <t>Discard circle6(3)</t>
-  </si>
-  <si>
-    <t>Discard circle7(3)</t>
-  </si>
-  <si>
-    <t>Discard circle8(3)</t>
-  </si>
-  <si>
-    <t>Discard circle9(3)</t>
-  </si>
-  <si>
-    <t>Discard bamboo1(3)</t>
-  </si>
-  <si>
-    <t>Discard bamboo2(3)</t>
-  </si>
-  <si>
-    <t>Discard bamboo3(3)</t>
-  </si>
-  <si>
-    <t>Discard bamboo4(3)</t>
-  </si>
-  <si>
-    <t>Discard bamboo5(3)</t>
-  </si>
-  <si>
-    <t>Discard bamboo6(3)</t>
-  </si>
-  <si>
-    <t>Discard bamboo7(3)</t>
-  </si>
-  <si>
-    <t>Discard bamboo8(3)</t>
-  </si>
-  <si>
-    <t>Discard bamboo9(3)</t>
-  </si>
-  <si>
-    <t>Discard Red(3)</t>
-  </si>
-  <si>
-    <t>Discard Green (3)</t>
-  </si>
-  <si>
-    <t>Discard White (3)</t>
-  </si>
-  <si>
-    <t>Discard East (3)</t>
-  </si>
-  <si>
-    <t>Discard South (3)</t>
-  </si>
-  <si>
-    <t>Discard West (3)</t>
-  </si>
-  <si>
-    <t>Discard North (3)</t>
-  </si>
-  <si>
-    <t>Discard character1(4)</t>
-  </si>
-  <si>
-    <t>Discard character2(4)</t>
-  </si>
-  <si>
-    <t>Discard character3(4)</t>
-  </si>
-  <si>
-    <t>Discard character4(4)</t>
-  </si>
-  <si>
-    <t>Discard character5(4)</t>
-  </si>
-  <si>
-    <t>Discard character6(4)</t>
-  </si>
-  <si>
-    <t>Discard character7(4)</t>
-  </si>
-  <si>
-    <t>Discard character8(4)</t>
-  </si>
-  <si>
-    <t>Discard character9(4)</t>
-  </si>
-  <si>
-    <t>Discard circle1(4)</t>
-  </si>
-  <si>
-    <t>Discard circle2(4)</t>
-  </si>
-  <si>
-    <t>Discard circle3(4)</t>
-  </si>
-  <si>
-    <t>Discard circle4(4)</t>
-  </si>
-  <si>
-    <t>Discard circle5(4)</t>
-  </si>
-  <si>
-    <t>Discard circle6(4)</t>
-  </si>
-  <si>
-    <t>Discard circle7(4)</t>
-  </si>
-  <si>
-    <t>Discard circle8(4)</t>
-  </si>
-  <si>
-    <t>Discard circle9(4)</t>
-  </si>
-  <si>
-    <t>Discard bamboo1(4)</t>
-  </si>
-  <si>
-    <t>Discard bamboo2(4)</t>
-  </si>
-  <si>
-    <t>Discard bamboo3(4)</t>
-  </si>
-  <si>
-    <t>Discard bamboo4(4)</t>
-  </si>
-  <si>
-    <t>Discard bamboo5(4)</t>
-  </si>
-  <si>
-    <t>Discard bamboo6(4)</t>
-  </si>
-  <si>
-    <t>Discard bamboo7(4)</t>
-  </si>
-  <si>
-    <t>Discard bamboo8(4)</t>
-  </si>
-  <si>
-    <t>Discard bamboo9(4)</t>
-  </si>
-  <si>
-    <t>Discard Red(4)</t>
-  </si>
-  <si>
-    <t>Discard Green (4)</t>
-  </si>
-  <si>
-    <t>Discard White (4)</t>
-  </si>
-  <si>
-    <t>Discard East (4)</t>
-  </si>
-  <si>
-    <t>Discard South (4)</t>
-  </si>
-  <si>
-    <t>Discard West (4)</t>
-  </si>
-  <si>
-    <t>Discard North (4)</t>
-  </si>
-  <si>
-    <t>discard</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>my score 0~1999</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>my score 2000~3999</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Right Discard character1(1)</t>
+  </si>
+  <si>
+    <t>Right Discard character2(1)</t>
+  </si>
+  <si>
+    <t>Right Discard character3(1)</t>
+  </si>
+  <si>
+    <t>Right Discard character4(1)</t>
+  </si>
+  <si>
+    <t>Right Discard character5(1)</t>
+  </si>
+  <si>
+    <t>Right Discard character6(1)</t>
+  </si>
+  <si>
+    <t>Right Discard character7(1)</t>
+  </si>
+  <si>
+    <t>Right Discard character8(1)</t>
+  </si>
+  <si>
+    <t>Right Discard character9(1)</t>
+  </si>
+  <si>
+    <t>Right Discard circle1(1)</t>
+  </si>
+  <si>
+    <t>Right Discard circle2(1)</t>
+  </si>
+  <si>
+    <t>Right Discard circle3(1)</t>
+  </si>
+  <si>
+    <t>Right Discard circle4(1)</t>
+  </si>
+  <si>
+    <t>Right Discard circle5(1)</t>
+  </si>
+  <si>
+    <t>Right Discard circle6(1)</t>
+  </si>
+  <si>
+    <t>Right Discard circle7(1)</t>
+  </si>
+  <si>
+    <t>Right Discard circle8(1)</t>
+  </si>
+  <si>
+    <t>Right Discard circle9(1)</t>
+  </si>
+  <si>
+    <t>Right Discard bamboo1(1)</t>
+  </si>
+  <si>
+    <t>Right Discard bamboo2(1)</t>
+  </si>
+  <si>
+    <t>Right Discard bamboo3(1)</t>
+  </si>
+  <si>
+    <t>Right Discard bamboo4(1)</t>
+  </si>
+  <si>
+    <t>Right Discard bamboo5(1)</t>
+  </si>
+  <si>
+    <t>Right Discard bamboo6(1)</t>
+  </si>
+  <si>
+    <t>Right Discard bamboo7(1)</t>
+  </si>
+  <si>
+    <t>Right Discard bamboo8(1)</t>
+  </si>
+  <si>
+    <t>Right Discard bamboo9(1)</t>
+  </si>
+  <si>
+    <t>Right Discard Red(1)</t>
+  </si>
+  <si>
+    <t>Right Discard Green (1)</t>
+  </si>
+  <si>
+    <t>Right Discard White (1)</t>
+  </si>
+  <si>
+    <t>Right Discard East (1)</t>
+  </si>
+  <si>
+    <t>Right Discard South (1)</t>
+  </si>
+  <si>
+    <t>Right Discard West (1)</t>
+  </si>
+  <si>
+    <t>Right Discard North (1)</t>
+  </si>
+  <si>
+    <t>Opposite Discard character1(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Opposite Discard character1(2)</t>
+  </si>
+  <si>
+    <t>Opposite Discard character1(3)</t>
+  </si>
+  <si>
+    <t>Opposite Discard character1(4)</t>
+  </si>
+  <si>
+    <t>Opposite Discard character1(5)</t>
+  </si>
+  <si>
+    <t>Opposite Discard character1(6)</t>
+  </si>
+  <si>
+    <t>Opposite Discard character1(7)</t>
+  </si>
+  <si>
+    <t>Opposite Discard character1(8)</t>
+  </si>
+  <si>
+    <t>Opposite Discard character1(9)</t>
+  </si>
+  <si>
+    <t>Opposite Discard character1(10)</t>
+  </si>
+  <si>
+    <t>Opposite Discard character1(11)</t>
+  </si>
+  <si>
+    <t>Opposite Discard character1(12)</t>
+  </si>
+  <si>
+    <t>Opposite Discard character1(13)</t>
+  </si>
+  <si>
+    <t>Opposite Discard character1(14)</t>
+  </si>
+  <si>
+    <t>Opposite Discard character1(15)</t>
+  </si>
+  <si>
+    <t>Opposite Discard character1(16)</t>
+  </si>
+  <si>
+    <t>Opposite Discard character1(17)</t>
+  </si>
+  <si>
+    <t>Opposite Discard character1(18)</t>
+  </si>
+  <si>
+    <t>Opposite Discard character1(19)</t>
+  </si>
+  <si>
+    <t>Opposite Discard character1(20)</t>
+  </si>
+  <si>
+    <t>Opposite Discard character1(21)</t>
+  </si>
+  <si>
+    <t>Opposite Discard character1(22)</t>
+  </si>
+  <si>
+    <t>Opposite Discard character1(23)</t>
+  </si>
+  <si>
+    <t>Opposite Discard character1(24)</t>
+  </si>
+  <si>
+    <t>Opposite Discard character1(25)</t>
+  </si>
+  <si>
+    <t>Opposite Discard character1(26)</t>
+  </si>
+  <si>
+    <t>Opposite Discard character1(27)</t>
+  </si>
+  <si>
+    <t>Opposite Discard character1(28)</t>
+  </si>
+  <si>
+    <t>Opposite Discard character1(29)</t>
+  </si>
+  <si>
+    <t>Opposite Discard character1(30)</t>
+  </si>
+  <si>
+    <t>Opposite Discard character1(31)</t>
+  </si>
+  <si>
+    <t>Opposite Discard character1(32)</t>
+  </si>
+  <si>
+    <t>Opposite Discard character1(33)</t>
+  </si>
+  <si>
+    <t>Opposite Discard character1(34)</t>
+  </si>
+  <si>
+    <t>Left Discard character1(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Left Discard character1(2)</t>
+  </si>
+  <si>
+    <t>Left Discard character1(3)</t>
+  </si>
+  <si>
+    <t>Left Discard character1(4)</t>
+  </si>
+  <si>
+    <t>Left Discard character1(5)</t>
+  </si>
+  <si>
+    <t>Left Discard character1(6)</t>
+  </si>
+  <si>
+    <t>Left Discard character1(7)</t>
+  </si>
+  <si>
+    <t>Left Discard character1(8)</t>
+  </si>
+  <si>
+    <t>Left Discard character1(9)</t>
+  </si>
+  <si>
+    <t>Left Discard character1(10)</t>
+  </si>
+  <si>
+    <t>Left Discard character1(11)</t>
+  </si>
+  <si>
+    <t>Left Discard character1(12)</t>
+  </si>
+  <si>
+    <t>Left Discard character1(13)</t>
+  </si>
+  <si>
+    <t>Left Discard character1(14)</t>
+  </si>
+  <si>
+    <t>Left Discard character1(15)</t>
+  </si>
+  <si>
+    <t>Left Discard character1(16)</t>
+  </si>
+  <si>
+    <t>Left Discard character1(17)</t>
+  </si>
+  <si>
+    <t>Left Discard character1(18)</t>
+  </si>
+  <si>
+    <t>Left Discard character1(19)</t>
+  </si>
+  <si>
+    <t>Left Discard character1(20)</t>
+  </si>
+  <si>
+    <t>Left Discard character1(21)</t>
+  </si>
+  <si>
+    <t>Left Discard character1(22)</t>
+  </si>
+  <si>
+    <t>Left Discard character1(23)</t>
+  </si>
+  <si>
+    <t>Left Discard character1(24)</t>
+  </si>
+  <si>
+    <t>Left Discard character1(25)</t>
+  </si>
+  <si>
+    <t>Left Discard character1(26)</t>
+  </si>
+  <si>
+    <t>Left Discard character1(27)</t>
+  </si>
+  <si>
+    <t>Left Discard character1(28)</t>
+  </si>
+  <si>
+    <t>Left Discard character1(29)</t>
+  </si>
+  <si>
+    <t>Left Discard character1(30)</t>
+  </si>
+  <si>
+    <t>Left Discard character1(31)</t>
+  </si>
+  <si>
+    <t>Left Discard character1(32)</t>
+  </si>
+  <si>
+    <t>Left Discard character1(33)</t>
+  </si>
+  <si>
+    <t>Left Discard character1(34)</t>
+  </si>
+  <si>
+    <t>Discard</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Remaining character1(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Remaining character1(2)</t>
+  </si>
+  <si>
+    <t>Remaining character1(3)</t>
+  </si>
+  <si>
+    <t>Remaining character1(4)</t>
+  </si>
+  <si>
+    <t>Remaining character1(5)</t>
+  </si>
+  <si>
+    <t>Remaining character1(6)</t>
+  </si>
+  <si>
+    <t>Remaining character1(7)</t>
+  </si>
+  <si>
+    <t>Remaining character1(8)</t>
+  </si>
+  <si>
+    <t>Remaining character1(9)</t>
+  </si>
+  <si>
+    <t>Remaining character1(10)</t>
+  </si>
+  <si>
+    <t>Remaining character1(11)</t>
+  </si>
+  <si>
+    <t>Remaining character1(12)</t>
+  </si>
+  <si>
+    <t>Remaining character1(13)</t>
+  </si>
+  <si>
+    <t>Remaining character1(14)</t>
+  </si>
+  <si>
+    <t>Remaining character1(15)</t>
+  </si>
+  <si>
+    <t>Remaining character1(16)</t>
+  </si>
+  <si>
+    <t>Remaining character1(17)</t>
+  </si>
+  <si>
+    <t>Remaining character1(18)</t>
+  </si>
+  <si>
+    <t>Remaining character1(19)</t>
+  </si>
+  <si>
+    <t>Remaining character1(20)</t>
+  </si>
+  <si>
+    <t>Remaining character1(21)</t>
+  </si>
+  <si>
+    <t>Remaining character1(22)</t>
+  </si>
+  <si>
+    <t>Remaining character1(23)</t>
+  </si>
+  <si>
+    <t>Remaining character1(24)</t>
+  </si>
+  <si>
+    <t>Remaining character1(25)</t>
+  </si>
+  <si>
+    <t>Remaining character1(26)</t>
+  </si>
+  <si>
+    <t>Remaining character1(27)</t>
+  </si>
+  <si>
+    <t>Remaining character1(28)</t>
+  </si>
+  <si>
+    <t>Remaining character1(29)</t>
+  </si>
+  <si>
+    <t>Remaining character1(30)</t>
+  </si>
+  <si>
+    <t>Remaining character1(31)</t>
+  </si>
+  <si>
+    <t>Remaining character1(32)</t>
+  </si>
+  <si>
+    <t>Remaining character1(33)</t>
+  </si>
+  <si>
+    <t>Remaining character1(34)</t>
+  </si>
+  <si>
+    <t>shanten_change character1(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shanten_change character1(2)</t>
+  </si>
+  <si>
+    <t>shanten_change character1(3)</t>
+  </si>
+  <si>
+    <t>shanten_change character1(4)</t>
+  </si>
+  <si>
+    <t>shanten_change character1(5)</t>
+  </si>
+  <si>
+    <t>shanten_change character1(6)</t>
+  </si>
+  <si>
+    <t>shanten_change character1(7)</t>
+  </si>
+  <si>
+    <t>shanten_change character1(8)</t>
+  </si>
+  <si>
+    <t>shanten_change character1(9)</t>
+  </si>
+  <si>
+    <t>shanten_change character1(10)</t>
+  </si>
+  <si>
+    <t>shanten_change character1(11)</t>
+  </si>
+  <si>
+    <t>shanten_change character1(12)</t>
+  </si>
+  <si>
+    <t>shanten_change character1(13)</t>
+  </si>
+  <si>
+    <t>shanten_change character1(14)</t>
+  </si>
+  <si>
+    <t>shanten_change character1(15)</t>
+  </si>
+  <si>
+    <t>shanten_change character1(16)</t>
+  </si>
+  <si>
+    <t>shanten_change character1(17)</t>
+  </si>
+  <si>
+    <t>shanten_change character1(18)</t>
+  </si>
+  <si>
+    <t>shanten_change character1(19)</t>
+  </si>
+  <si>
+    <t>shanten_change character1(20)</t>
+  </si>
+  <si>
+    <t>shanten_change character1(21)</t>
+  </si>
+  <si>
+    <t>shanten_change character1(22)</t>
+  </si>
+  <si>
+    <t>shanten_change character1(23)</t>
+  </si>
+  <si>
+    <t>shanten_change character1(24)</t>
+  </si>
+  <si>
+    <t>shanten_change character1(25)</t>
+  </si>
+  <si>
+    <t>shanten_change character1(26)</t>
+  </si>
+  <si>
+    <t>shanten_change character1(27)</t>
+  </si>
+  <si>
+    <t>shanten_change character1(28)</t>
+  </si>
+  <si>
+    <t>shanten_change character1(29)</t>
+  </si>
+  <si>
+    <t>shanten_change character1(30)</t>
+  </si>
+  <si>
+    <t>shanten_change character1(31)</t>
+  </si>
+  <si>
+    <t>shanten_change character1(32)</t>
+  </si>
+  <si>
+    <t>shanten_change character1(33)</t>
+  </si>
+  <si>
+    <t>shanten_change character1(34)</t>
+  </si>
+  <si>
+    <t>pon_potential character1(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pon_potential character1(2)</t>
+  </si>
+  <si>
+    <t>pon_potential character1(3)</t>
+  </si>
+  <si>
+    <t>pon_potential character1(4)</t>
+  </si>
+  <si>
+    <t>pon_potential character1(5)</t>
+  </si>
+  <si>
+    <t>pon_potential character1(6)</t>
+  </si>
+  <si>
+    <t>pon_potential character1(7)</t>
+  </si>
+  <si>
+    <t>pon_potential character1(8)</t>
+  </si>
+  <si>
+    <t>pon_potential character1(9)</t>
+  </si>
+  <si>
+    <t>pon_potential character1(10)</t>
+  </si>
+  <si>
+    <t>pon_potential character1(11)</t>
+  </si>
+  <si>
+    <t>pon_potential character1(12)</t>
+  </si>
+  <si>
+    <t>pon_potential character1(13)</t>
+  </si>
+  <si>
+    <t>pon_potential character1(14)</t>
+  </si>
+  <si>
+    <t>pon_potential character1(15)</t>
+  </si>
+  <si>
+    <t>pon_potential character1(16)</t>
+  </si>
+  <si>
+    <t>pon_potential character1(17)</t>
+  </si>
+  <si>
+    <t>pon_potential character1(18)</t>
+  </si>
+  <si>
+    <t>pon_potential character1(19)</t>
+  </si>
+  <si>
+    <t>pon_potential character1(20)</t>
+  </si>
+  <si>
+    <t>pon_potential character1(21)</t>
+  </si>
+  <si>
+    <t>pon_potential character1(22)</t>
+  </si>
+  <si>
+    <t>pon_potential character1(23)</t>
+  </si>
+  <si>
+    <t>pon_potential character1(24)</t>
+  </si>
+  <si>
+    <t>pon_potential character1(25)</t>
+  </si>
+  <si>
+    <t>pon_potential character1(26)</t>
+  </si>
+  <si>
+    <t>pon_potential character1(27)</t>
+  </si>
+  <si>
+    <t>pon_potential character1(28)</t>
+  </si>
+  <si>
+    <t>pon_potential character1(29)</t>
+  </si>
+  <si>
+    <t>pon_potential character1(30)</t>
+  </si>
+  <si>
+    <t>pon_potential character1(31)</t>
+  </si>
+  <si>
+    <t>pon_potential character1(32)</t>
+  </si>
+  <si>
+    <t>pon_potential character1(33)</t>
+  </si>
+  <si>
+    <t>pon_potential character1(34)</t>
+  </si>
+  <si>
+    <t>chii_potential character1(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chii_potential character1(2)</t>
+  </si>
+  <si>
+    <t>chii_potential character1(3)</t>
+  </si>
+  <si>
+    <t>chii_potential character1(4)</t>
+  </si>
+  <si>
+    <t>chii_potential character1(5)</t>
+  </si>
+  <si>
+    <t>chii_potential character1(6)</t>
+  </si>
+  <si>
+    <t>chii_potential character1(7)</t>
+  </si>
+  <si>
+    <t>chii_potential character1(8)</t>
+  </si>
+  <si>
+    <t>chii_potential character1(9)</t>
+  </si>
+  <si>
+    <t>chii_potential character1(10)</t>
+  </si>
+  <si>
+    <t>chii_potential character1(11)</t>
+  </si>
+  <si>
+    <t>chii_potential character1(12)</t>
+  </si>
+  <si>
+    <t>chii_potential character1(13)</t>
+  </si>
+  <si>
+    <t>chii_potential character1(14)</t>
+  </si>
+  <si>
+    <t>chii_potential character1(15)</t>
+  </si>
+  <si>
+    <t>chii_potential character1(16)</t>
+  </si>
+  <si>
+    <t>chii_potential character1(17)</t>
+  </si>
+  <si>
+    <t>chii_potential character1(18)</t>
+  </si>
+  <si>
+    <t>chii_potential character1(19)</t>
+  </si>
+  <si>
+    <t>chii_potential character1(20)</t>
+  </si>
+  <si>
+    <t>chii_potential character1(21)</t>
+  </si>
+  <si>
+    <t>chii_potential character1(22)</t>
+  </si>
+  <si>
+    <t>chii_potential character1(23)</t>
+  </si>
+  <si>
+    <t>chii_potential character1(24)</t>
+  </si>
+  <si>
+    <t>chii_potential character1(25)</t>
+  </si>
+  <si>
+    <t>chii_potential character1(26)</t>
+  </si>
+  <si>
+    <t>chii_potential character1(27)</t>
+  </si>
+  <si>
+    <t>chii_potential character1(28)</t>
+  </si>
+  <si>
+    <t>chii_potential character1(29)</t>
+  </si>
+  <si>
+    <t>chii_potential character1(30)</t>
+  </si>
+  <si>
+    <t>chii_potential character1(31)</t>
+  </si>
+  <si>
+    <t>chii_potential character1(32)</t>
+  </si>
+  <si>
+    <t>chii_potential character1(33)</t>
+  </si>
+  <si>
+    <t>chii_potential character1(34)</t>
   </si>
 </sst>
 </file>
@@ -3388,8 +3397,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AKY1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="ADY1" workbookViewId="0">
-      <selection activeCell="AEL1" sqref="AEL1"/>
+    <sheetView tabSelected="1" topLeftCell="AKS1" workbookViewId="0">
+      <selection activeCell="ALD20" sqref="ALD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5130,1231 +5139,1231 @@
         <v>439</v>
       </c>
       <c r="VG1" t="s">
+        <v>748</v>
+      </c>
+      <c r="VH1" t="s">
+        <v>749</v>
+      </c>
+      <c r="VI1" t="s">
+        <v>750</v>
+      </c>
+      <c r="VJ1" t="s">
+        <v>751</v>
+      </c>
+      <c r="VK1" t="s">
+        <v>752</v>
+      </c>
+      <c r="VL1" t="s">
+        <v>753</v>
+      </c>
+      <c r="VM1" t="s">
+        <v>754</v>
+      </c>
+      <c r="VN1" t="s">
+        <v>755</v>
+      </c>
+      <c r="VO1" t="s">
+        <v>756</v>
+      </c>
+      <c r="VP1" t="s">
+        <v>757</v>
+      </c>
+      <c r="VQ1" t="s">
+        <v>758</v>
+      </c>
+      <c r="VR1" t="s">
+        <v>759</v>
+      </c>
+      <c r="VS1" t="s">
+        <v>760</v>
+      </c>
+      <c r="VT1" t="s">
+        <v>761</v>
+      </c>
+      <c r="VU1" t="s">
+        <v>762</v>
+      </c>
+      <c r="VV1" t="s">
+        <v>763</v>
+      </c>
+      <c r="VW1" t="s">
+        <v>764</v>
+      </c>
+      <c r="VX1" t="s">
+        <v>765</v>
+      </c>
+      <c r="VY1" t="s">
+        <v>766</v>
+      </c>
+      <c r="VZ1" t="s">
+        <v>767</v>
+      </c>
+      <c r="WA1" t="s">
+        <v>768</v>
+      </c>
+      <c r="WB1" t="s">
+        <v>769</v>
+      </c>
+      <c r="WC1" t="s">
+        <v>770</v>
+      </c>
+      <c r="WD1" t="s">
+        <v>771</v>
+      </c>
+      <c r="WE1" t="s">
+        <v>772</v>
+      </c>
+      <c r="WF1" t="s">
+        <v>773</v>
+      </c>
+      <c r="WG1" t="s">
+        <v>774</v>
+      </c>
+      <c r="WH1" t="s">
+        <v>775</v>
+      </c>
+      <c r="WI1" t="s">
+        <v>776</v>
+      </c>
+      <c r="WJ1" t="s">
+        <v>777</v>
+      </c>
+      <c r="WK1" t="s">
+        <v>778</v>
+      </c>
+      <c r="WL1" t="s">
+        <v>779</v>
+      </c>
+      <c r="WM1" t="s">
+        <v>780</v>
+      </c>
+      <c r="WN1" t="s">
+        <v>781</v>
+      </c>
+      <c r="WO1" t="s">
+        <v>782</v>
+      </c>
+      <c r="WP1" t="s">
+        <v>783</v>
+      </c>
+      <c r="WQ1" t="s">
+        <v>784</v>
+      </c>
+      <c r="WR1" t="s">
+        <v>785</v>
+      </c>
+      <c r="WS1" t="s">
+        <v>786</v>
+      </c>
+      <c r="WT1" t="s">
+        <v>787</v>
+      </c>
+      <c r="WU1" t="s">
+        <v>788</v>
+      </c>
+      <c r="WV1" t="s">
+        <v>789</v>
+      </c>
+      <c r="WW1" t="s">
+        <v>790</v>
+      </c>
+      <c r="WX1" t="s">
+        <v>791</v>
+      </c>
+      <c r="WY1" t="s">
+        <v>792</v>
+      </c>
+      <c r="WZ1" t="s">
+        <v>793</v>
+      </c>
+      <c r="XA1" t="s">
+        <v>794</v>
+      </c>
+      <c r="XB1" t="s">
+        <v>795</v>
+      </c>
+      <c r="XC1" t="s">
+        <v>796</v>
+      </c>
+      <c r="XD1" t="s">
+        <v>797</v>
+      </c>
+      <c r="XE1" t="s">
+        <v>798</v>
+      </c>
+      <c r="XF1" t="s">
+        <v>799</v>
+      </c>
+      <c r="XG1" t="s">
+        <v>800</v>
+      </c>
+      <c r="XH1" t="s">
+        <v>801</v>
+      </c>
+      <c r="XI1" t="s">
+        <v>802</v>
+      </c>
+      <c r="XJ1" t="s">
+        <v>803</v>
+      </c>
+      <c r="XK1" t="s">
+        <v>804</v>
+      </c>
+      <c r="XL1" t="s">
+        <v>805</v>
+      </c>
+      <c r="XM1" t="s">
+        <v>806</v>
+      </c>
+      <c r="XN1" t="s">
+        <v>807</v>
+      </c>
+      <c r="XO1" t="s">
+        <v>808</v>
+      </c>
+      <c r="XP1" t="s">
+        <v>809</v>
+      </c>
+      <c r="XQ1" t="s">
+        <v>810</v>
+      </c>
+      <c r="XR1" t="s">
+        <v>811</v>
+      </c>
+      <c r="XS1" t="s">
+        <v>812</v>
+      </c>
+      <c r="XT1" t="s">
+        <v>813</v>
+      </c>
+      <c r="XU1" t="s">
+        <v>814</v>
+      </c>
+      <c r="XV1" t="s">
+        <v>815</v>
+      </c>
+      <c r="XW1" t="s">
+        <v>816</v>
+      </c>
+      <c r="XX1" t="s">
+        <v>817</v>
+      </c>
+      <c r="XY1" t="s">
+        <v>818</v>
+      </c>
+      <c r="XZ1" t="s">
+        <v>819</v>
+      </c>
+      <c r="YA1" t="s">
+        <v>820</v>
+      </c>
+      <c r="YB1" t="s">
+        <v>821</v>
+      </c>
+      <c r="YC1" t="s">
+        <v>822</v>
+      </c>
+      <c r="YD1" t="s">
+        <v>823</v>
+      </c>
+      <c r="YE1" t="s">
+        <v>824</v>
+      </c>
+      <c r="YF1" t="s">
+        <v>825</v>
+      </c>
+      <c r="YG1" t="s">
+        <v>826</v>
+      </c>
+      <c r="YH1" t="s">
+        <v>827</v>
+      </c>
+      <c r="YI1" t="s">
+        <v>828</v>
+      </c>
+      <c r="YJ1" t="s">
+        <v>829</v>
+      </c>
+      <c r="YK1" t="s">
+        <v>830</v>
+      </c>
+      <c r="YL1" t="s">
+        <v>831</v>
+      </c>
+      <c r="YM1" t="s">
+        <v>832</v>
+      </c>
+      <c r="YN1" t="s">
+        <v>833</v>
+      </c>
+      <c r="YO1" t="s">
+        <v>834</v>
+      </c>
+      <c r="YP1" t="s">
+        <v>835</v>
+      </c>
+      <c r="YQ1" t="s">
+        <v>836</v>
+      </c>
+      <c r="YR1" t="s">
+        <v>837</v>
+      </c>
+      <c r="YS1" t="s">
+        <v>838</v>
+      </c>
+      <c r="YT1" t="s">
+        <v>839</v>
+      </c>
+      <c r="YU1" t="s">
+        <v>840</v>
+      </c>
+      <c r="YV1" t="s">
+        <v>841</v>
+      </c>
+      <c r="YW1" t="s">
+        <v>842</v>
+      </c>
+      <c r="YX1" t="s">
+        <v>843</v>
+      </c>
+      <c r="YY1" t="s">
+        <v>844</v>
+      </c>
+      <c r="YZ1" t="s">
+        <v>845</v>
+      </c>
+      <c r="ZA1" t="s">
+        <v>846</v>
+      </c>
+      <c r="ZB1" t="s">
+        <v>847</v>
+      </c>
+      <c r="ZC1" t="s">
+        <v>848</v>
+      </c>
+      <c r="ZD1" t="s">
+        <v>849</v>
+      </c>
+      <c r="ZE1" s="1" t="s">
         <v>746</v>
       </c>
-      <c r="VH1" t="s">
+      <c r="ZF1" t="s">
         <v>747</v>
       </c>
-      <c r="VI1" t="s">
-        <v>748</v>
-      </c>
-      <c r="VJ1" t="s">
-        <v>749</v>
-      </c>
-      <c r="VK1" t="s">
-        <v>750</v>
-      </c>
-      <c r="VL1" t="s">
-        <v>751</v>
-      </c>
-      <c r="VM1" t="s">
-        <v>752</v>
-      </c>
-      <c r="VN1" t="s">
-        <v>753</v>
-      </c>
-      <c r="VO1" t="s">
-        <v>754</v>
-      </c>
-      <c r="VP1" t="s">
-        <v>755</v>
-      </c>
-      <c r="VQ1" t="s">
-        <v>756</v>
-      </c>
-      <c r="VR1" t="s">
-        <v>757</v>
-      </c>
-      <c r="VS1" t="s">
-        <v>758</v>
-      </c>
-      <c r="VT1" t="s">
-        <v>759</v>
-      </c>
-      <c r="VU1" t="s">
-        <v>760</v>
-      </c>
-      <c r="VV1" t="s">
-        <v>761</v>
-      </c>
-      <c r="VW1" t="s">
-        <v>762</v>
-      </c>
-      <c r="VX1" t="s">
-        <v>763</v>
-      </c>
-      <c r="VY1" t="s">
-        <v>764</v>
-      </c>
-      <c r="VZ1" t="s">
-        <v>765</v>
-      </c>
-      <c r="WA1" t="s">
-        <v>766</v>
-      </c>
-      <c r="WB1" t="s">
-        <v>767</v>
-      </c>
-      <c r="WC1" t="s">
-        <v>768</v>
-      </c>
-      <c r="WD1" t="s">
-        <v>769</v>
-      </c>
-      <c r="WE1" t="s">
-        <v>770</v>
-      </c>
-      <c r="WF1" t="s">
-        <v>771</v>
-      </c>
-      <c r="WG1" t="s">
-        <v>772</v>
-      </c>
-      <c r="WH1" t="s">
-        <v>773</v>
-      </c>
-      <c r="WI1" t="s">
-        <v>774</v>
-      </c>
-      <c r="WJ1" t="s">
-        <v>775</v>
-      </c>
-      <c r="WK1" t="s">
-        <v>776</v>
-      </c>
-      <c r="WL1" t="s">
-        <v>777</v>
-      </c>
-      <c r="WM1" t="s">
-        <v>778</v>
-      </c>
-      <c r="WN1" t="s">
-        <v>779</v>
-      </c>
-      <c r="WO1" t="s">
-        <v>780</v>
-      </c>
-      <c r="WP1" t="s">
-        <v>781</v>
-      </c>
-      <c r="WQ1" t="s">
-        <v>782</v>
-      </c>
-      <c r="WR1" t="s">
-        <v>783</v>
-      </c>
-      <c r="WS1" t="s">
-        <v>784</v>
-      </c>
-      <c r="WT1" t="s">
-        <v>785</v>
-      </c>
-      <c r="WU1" t="s">
-        <v>786</v>
-      </c>
-      <c r="WV1" t="s">
-        <v>787</v>
-      </c>
-      <c r="WW1" t="s">
-        <v>788</v>
-      </c>
-      <c r="WX1" t="s">
-        <v>789</v>
-      </c>
-      <c r="WY1" t="s">
-        <v>790</v>
-      </c>
-      <c r="WZ1" t="s">
-        <v>791</v>
-      </c>
-      <c r="XA1" t="s">
-        <v>792</v>
-      </c>
-      <c r="XB1" t="s">
-        <v>793</v>
-      </c>
-      <c r="XC1" t="s">
-        <v>794</v>
-      </c>
-      <c r="XD1" t="s">
-        <v>795</v>
-      </c>
-      <c r="XE1" t="s">
-        <v>796</v>
-      </c>
-      <c r="XF1" t="s">
-        <v>797</v>
-      </c>
-      <c r="XG1" t="s">
-        <v>798</v>
-      </c>
-      <c r="XH1" t="s">
-        <v>799</v>
-      </c>
-      <c r="XI1" t="s">
-        <v>800</v>
-      </c>
-      <c r="XJ1" t="s">
-        <v>801</v>
-      </c>
-      <c r="XK1" t="s">
-        <v>802</v>
-      </c>
-      <c r="XL1" t="s">
-        <v>803</v>
-      </c>
-      <c r="XM1" t="s">
-        <v>804</v>
-      </c>
-      <c r="XN1" t="s">
-        <v>805</v>
-      </c>
-      <c r="XO1" t="s">
-        <v>806</v>
-      </c>
-      <c r="XP1" t="s">
-        <v>807</v>
-      </c>
-      <c r="XQ1" t="s">
-        <v>808</v>
-      </c>
-      <c r="XR1" t="s">
-        <v>809</v>
-      </c>
-      <c r="XS1" t="s">
-        <v>810</v>
-      </c>
-      <c r="XT1" t="s">
-        <v>811</v>
-      </c>
-      <c r="XU1" t="s">
-        <v>812</v>
-      </c>
-      <c r="XV1" t="s">
-        <v>813</v>
-      </c>
-      <c r="XW1" t="s">
-        <v>814</v>
-      </c>
-      <c r="XX1" t="s">
-        <v>815</v>
-      </c>
-      <c r="XY1" t="s">
-        <v>816</v>
-      </c>
-      <c r="XZ1" t="s">
-        <v>817</v>
-      </c>
-      <c r="YA1" t="s">
-        <v>818</v>
-      </c>
-      <c r="YB1" t="s">
-        <v>819</v>
-      </c>
-      <c r="YC1" t="s">
-        <v>820</v>
-      </c>
-      <c r="YD1" t="s">
-        <v>821</v>
-      </c>
-      <c r="YE1" t="s">
-        <v>822</v>
-      </c>
-      <c r="YF1" t="s">
-        <v>823</v>
-      </c>
-      <c r="YG1" t="s">
-        <v>824</v>
-      </c>
-      <c r="YH1" t="s">
-        <v>825</v>
-      </c>
-      <c r="YI1" t="s">
-        <v>826</v>
-      </c>
-      <c r="YJ1" t="s">
-        <v>827</v>
-      </c>
-      <c r="YK1" t="s">
-        <v>828</v>
-      </c>
-      <c r="YL1" t="s">
-        <v>829</v>
-      </c>
-      <c r="YM1" t="s">
-        <v>830</v>
-      </c>
-      <c r="YN1" t="s">
-        <v>831</v>
-      </c>
-      <c r="YO1" t="s">
-        <v>832</v>
-      </c>
-      <c r="YP1" t="s">
-        <v>833</v>
-      </c>
-      <c r="YQ1" t="s">
-        <v>834</v>
-      </c>
-      <c r="YR1" t="s">
-        <v>835</v>
-      </c>
-      <c r="YS1" t="s">
-        <v>836</v>
-      </c>
-      <c r="YT1" t="s">
-        <v>837</v>
-      </c>
-      <c r="YU1" t="s">
-        <v>838</v>
-      </c>
-      <c r="YV1" t="s">
-        <v>839</v>
-      </c>
-      <c r="YW1" t="s">
-        <v>840</v>
-      </c>
-      <c r="YX1" t="s">
-        <v>841</v>
-      </c>
-      <c r="YY1" t="s">
-        <v>842</v>
-      </c>
-      <c r="YZ1" t="s">
-        <v>843</v>
-      </c>
-      <c r="ZA1" t="s">
-        <v>844</v>
-      </c>
-      <c r="ZB1" t="s">
-        <v>845</v>
-      </c>
-      <c r="ZC1" t="s">
-        <v>846</v>
-      </c>
-      <c r="ZD1" t="s">
-        <v>847</v>
-      </c>
-      <c r="ZE1" t="s">
-        <v>848</v>
-      </c>
-      <c r="ZF1" t="s">
-        <v>849</v>
-      </c>
       <c r="ZG1" t="s">
+        <v>0</v>
+      </c>
+      <c r="ZH1" t="s">
+        <v>1</v>
+      </c>
+      <c r="ZI1" t="s">
+        <v>2</v>
+      </c>
+      <c r="ZJ1" t="s">
+        <v>3</v>
+      </c>
+      <c r="ZK1" t="s">
+        <v>4</v>
+      </c>
+      <c r="ZL1" t="s">
+        <v>5</v>
+      </c>
+      <c r="ZM1" t="s">
+        <v>6</v>
+      </c>
+      <c r="ZN1" t="s">
+        <v>7</v>
+      </c>
+      <c r="ZO1" t="s">
+        <v>8</v>
+      </c>
+      <c r="ZP1" t="s">
+        <v>9</v>
+      </c>
+      <c r="ZQ1" t="s">
+        <v>10</v>
+      </c>
+      <c r="ZR1" t="s">
+        <v>11</v>
+      </c>
+      <c r="ZS1" t="s">
+        <v>12</v>
+      </c>
+      <c r="ZT1" t="s">
+        <v>13</v>
+      </c>
+      <c r="ZU1" t="s">
+        <v>14</v>
+      </c>
+      <c r="ZV1" t="s">
+        <v>15</v>
+      </c>
+      <c r="ZW1" t="s">
+        <v>16</v>
+      </c>
+      <c r="ZX1" t="s">
+        <v>17</v>
+      </c>
+      <c r="ZY1" t="s">
+        <v>18</v>
+      </c>
+      <c r="ZZ1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AAA1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AAB1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AAC1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AAD1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AAE1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AAF1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AAG1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AAH1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AAI1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AAJ1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AAK1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AAL1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AAM1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AAN1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AAO1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AAP1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AAQ1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AAR1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AAS1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AAT1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AAU1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AAV1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AAW1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AAX1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AAY1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AAZ1" t="s">
+        <v>45</v>
+      </c>
+      <c r="ABA1" t="s">
+        <v>46</v>
+      </c>
+      <c r="ABB1" t="s">
+        <v>47</v>
+      </c>
+      <c r="ABC1" t="s">
+        <v>48</v>
+      </c>
+      <c r="ABD1" t="s">
+        <v>49</v>
+      </c>
+      <c r="ABE1" t="s">
+        <v>50</v>
+      </c>
+      <c r="ABF1" t="s">
+        <v>51</v>
+      </c>
+      <c r="ABG1" t="s">
+        <v>52</v>
+      </c>
+      <c r="ABH1" t="s">
+        <v>53</v>
+      </c>
+      <c r="ABI1" t="s">
+        <v>54</v>
+      </c>
+      <c r="ABJ1" t="s">
+        <v>55</v>
+      </c>
+      <c r="ABK1" t="s">
+        <v>56</v>
+      </c>
+      <c r="ABL1" t="s">
+        <v>57</v>
+      </c>
+      <c r="ABM1" t="s">
+        <v>58</v>
+      </c>
+      <c r="ABN1" t="s">
+        <v>59</v>
+      </c>
+      <c r="ABO1" t="s">
+        <v>60</v>
+      </c>
+      <c r="ABP1" t="s">
+        <v>61</v>
+      </c>
+      <c r="ABQ1" t="s">
+        <v>62</v>
+      </c>
+      <c r="ABR1" t="s">
+        <v>63</v>
+      </c>
+      <c r="ABS1" t="s">
+        <v>64</v>
+      </c>
+      <c r="ABT1" t="s">
+        <v>65</v>
+      </c>
+      <c r="ABU1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="ABV1" t="s">
+        <v>101</v>
+      </c>
+      <c r="ABW1" t="s">
+        <v>102</v>
+      </c>
+      <c r="ABX1" t="s">
+        <v>103</v>
+      </c>
+      <c r="ABY1" t="s">
+        <v>104</v>
+      </c>
+      <c r="ABZ1" t="s">
+        <v>105</v>
+      </c>
+      <c r="ACA1" t="s">
+        <v>106</v>
+      </c>
+      <c r="ACB1" t="s">
+        <v>107</v>
+      </c>
+      <c r="ACC1" t="s">
+        <v>108</v>
+      </c>
+      <c r="ACD1" t="s">
+        <v>109</v>
+      </c>
+      <c r="ACE1" t="s">
+        <v>110</v>
+      </c>
+      <c r="ACF1" t="s">
+        <v>111</v>
+      </c>
+      <c r="ACG1" t="s">
+        <v>112</v>
+      </c>
+      <c r="ACH1" t="s">
+        <v>113</v>
+      </c>
+      <c r="ACI1" t="s">
+        <v>114</v>
+      </c>
+      <c r="ACJ1" t="s">
+        <v>115</v>
+      </c>
+      <c r="ACK1" t="s">
+        <v>116</v>
+      </c>
+      <c r="ACL1" t="s">
+        <v>117</v>
+      </c>
+      <c r="ACM1" t="s">
+        <v>118</v>
+      </c>
+      <c r="ACN1" t="s">
+        <v>119</v>
+      </c>
+      <c r="ACO1" t="s">
+        <v>120</v>
+      </c>
+      <c r="ACP1" t="s">
+        <v>121</v>
+      </c>
+      <c r="ACQ1" t="s">
+        <v>122</v>
+      </c>
+      <c r="ACR1" t="s">
+        <v>123</v>
+      </c>
+      <c r="ACS1" t="s">
+        <v>124</v>
+      </c>
+      <c r="ACT1" t="s">
+        <v>125</v>
+      </c>
+      <c r="ACU1" t="s">
+        <v>126</v>
+      </c>
+      <c r="ACV1" t="s">
+        <v>127</v>
+      </c>
+      <c r="ACW1" t="s">
+        <v>128</v>
+      </c>
+      <c r="ACX1" t="s">
+        <v>129</v>
+      </c>
+      <c r="ACY1" t="s">
+        <v>130</v>
+      </c>
+      <c r="ACZ1" t="s">
+        <v>131</v>
+      </c>
+      <c r="ADA1" t="s">
+        <v>132</v>
+      </c>
+      <c r="ADB1" t="s">
+        <v>133</v>
+      </c>
+      <c r="ADC1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="ADD1" t="s">
+        <v>67</v>
+      </c>
+      <c r="ADE1" t="s">
+        <v>68</v>
+      </c>
+      <c r="ADF1" t="s">
+        <v>69</v>
+      </c>
+      <c r="ADG1" t="s">
+        <v>70</v>
+      </c>
+      <c r="ADH1" t="s">
+        <v>71</v>
+      </c>
+      <c r="ADI1" t="s">
+        <v>72</v>
+      </c>
+      <c r="ADJ1" t="s">
+        <v>73</v>
+      </c>
+      <c r="ADK1" t="s">
+        <v>74</v>
+      </c>
+      <c r="ADL1" t="s">
+        <v>75</v>
+      </c>
+      <c r="ADM1" t="s">
+        <v>76</v>
+      </c>
+      <c r="ADN1" t="s">
+        <v>77</v>
+      </c>
+      <c r="ADO1" t="s">
+        <v>78</v>
+      </c>
+      <c r="ADP1" t="s">
+        <v>79</v>
+      </c>
+      <c r="ADQ1" t="s">
+        <v>80</v>
+      </c>
+      <c r="ADR1" t="s">
+        <v>81</v>
+      </c>
+      <c r="ADS1" t="s">
+        <v>82</v>
+      </c>
+      <c r="ADT1" t="s">
+        <v>83</v>
+      </c>
+      <c r="ADU1" t="s">
+        <v>84</v>
+      </c>
+      <c r="ADV1" t="s">
+        <v>85</v>
+      </c>
+      <c r="ADW1" t="s">
+        <v>86</v>
+      </c>
+      <c r="ADX1" t="s">
+        <v>87</v>
+      </c>
+      <c r="ADY1" t="s">
+        <v>88</v>
+      </c>
+      <c r="ADZ1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AEA1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AEB1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AEC1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AED1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AEE1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AEF1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AEG1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AEH1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AEI1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AEJ1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AEK1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AEL1" t="s">
+        <v>134</v>
+      </c>
+      <c r="AEM1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AEN1" t="s">
+        <v>137</v>
+      </c>
+      <c r="AEO1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AEP1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AEQ1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AER1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AES1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AET1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AEU1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AEV1" t="s">
+        <v>145</v>
+      </c>
+      <c r="AEW1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AEX1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AEY1" t="s">
+        <v>148</v>
+      </c>
+      <c r="AEZ1" t="s">
+        <v>149</v>
+      </c>
+      <c r="AFA1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AFB1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AFC1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AFD1" t="s">
+        <v>153</v>
+      </c>
+      <c r="AFE1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AFF1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AFG1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AFH1" t="s">
+        <v>157</v>
+      </c>
+      <c r="AFI1" t="s">
+        <v>158</v>
+      </c>
+      <c r="AFJ1" t="s">
+        <v>159</v>
+      </c>
+      <c r="AFK1" t="s">
+        <v>160</v>
+      </c>
+      <c r="AFL1" t="s">
+        <v>161</v>
+      </c>
+      <c r="AFM1" t="s">
+        <v>162</v>
+      </c>
+      <c r="AFN1" t="s">
+        <v>163</v>
+      </c>
+      <c r="AFO1" t="s">
+        <v>164</v>
+      </c>
+      <c r="AFP1" t="s">
+        <v>165</v>
+      </c>
+      <c r="AFQ1" t="s">
+        <v>166</v>
+      </c>
+      <c r="AFR1" t="s">
+        <v>167</v>
+      </c>
+      <c r="AFS1" t="s">
+        <v>851</v>
+      </c>
+      <c r="AFT1" t="s">
+        <v>852</v>
+      </c>
+      <c r="AFU1" t="s">
+        <v>853</v>
+      </c>
+      <c r="AFV1" t="s">
+        <v>854</v>
+      </c>
+      <c r="AFW1" t="s">
+        <v>855</v>
+      </c>
+      <c r="AFX1" t="s">
+        <v>856</v>
+      </c>
+      <c r="AFY1" t="s">
+        <v>857</v>
+      </c>
+      <c r="AFZ1" t="s">
+        <v>858</v>
+      </c>
+      <c r="AGA1" t="s">
+        <v>859</v>
+      </c>
+      <c r="AGB1" t="s">
+        <v>860</v>
+      </c>
+      <c r="AGC1" t="s">
+        <v>861</v>
+      </c>
+      <c r="AGD1" t="s">
+        <v>862</v>
+      </c>
+      <c r="AGE1" t="s">
+        <v>863</v>
+      </c>
+      <c r="AGF1" t="s">
+        <v>864</v>
+      </c>
+      <c r="AGG1" t="s">
+        <v>865</v>
+      </c>
+      <c r="AGH1" t="s">
+        <v>866</v>
+      </c>
+      <c r="AGI1" t="s">
+        <v>867</v>
+      </c>
+      <c r="AGJ1" t="s">
+        <v>868</v>
+      </c>
+      <c r="AGK1" t="s">
+        <v>869</v>
+      </c>
+      <c r="AGL1" t="s">
+        <v>870</v>
+      </c>
+      <c r="AGM1" t="s">
+        <v>871</v>
+      </c>
+      <c r="AGN1" t="s">
+        <v>872</v>
+      </c>
+      <c r="AGO1" t="s">
+        <v>873</v>
+      </c>
+      <c r="AGP1" t="s">
+        <v>874</v>
+      </c>
+      <c r="AGQ1" t="s">
+        <v>875</v>
+      </c>
+      <c r="AGR1" t="s">
+        <v>876</v>
+      </c>
+      <c r="AGS1" t="s">
+        <v>877</v>
+      </c>
+      <c r="AGT1" t="s">
+        <v>878</v>
+      </c>
+      <c r="AGU1" t="s">
+        <v>879</v>
+      </c>
+      <c r="AGV1" t="s">
+        <v>880</v>
+      </c>
+      <c r="AGW1" t="s">
+        <v>881</v>
+      </c>
+      <c r="AGX1" t="s">
+        <v>882</v>
+      </c>
+      <c r="AGY1" t="s">
+        <v>883</v>
+      </c>
+      <c r="AGZ1" t="s">
+        <v>884</v>
+      </c>
+      <c r="AHA1" t="s">
+        <v>885</v>
+      </c>
+      <c r="AHB1" t="s">
+        <v>886</v>
+      </c>
+      <c r="AHC1" t="s">
+        <v>887</v>
+      </c>
+      <c r="AHD1" t="s">
+        <v>888</v>
+      </c>
+      <c r="AHE1" t="s">
+        <v>889</v>
+      </c>
+      <c r="AHF1" t="s">
+        <v>890</v>
+      </c>
+      <c r="AHG1" t="s">
+        <v>891</v>
+      </c>
+      <c r="AHH1" t="s">
+        <v>892</v>
+      </c>
+      <c r="AHI1" t="s">
+        <v>893</v>
+      </c>
+      <c r="AHJ1" t="s">
+        <v>894</v>
+      </c>
+      <c r="AHK1" t="s">
+        <v>895</v>
+      </c>
+      <c r="AHL1" t="s">
+        <v>896</v>
+      </c>
+      <c r="AHM1" t="s">
+        <v>897</v>
+      </c>
+      <c r="AHN1" t="s">
+        <v>898</v>
+      </c>
+      <c r="AHO1" t="s">
+        <v>899</v>
+      </c>
+      <c r="AHP1" t="s">
+        <v>900</v>
+      </c>
+      <c r="AHQ1" t="s">
+        <v>901</v>
+      </c>
+      <c r="AHR1" t="s">
+        <v>902</v>
+      </c>
+      <c r="AHS1" t="s">
+        <v>903</v>
+      </c>
+      <c r="AHT1" t="s">
+        <v>904</v>
+      </c>
+      <c r="AHU1" t="s">
+        <v>905</v>
+      </c>
+      <c r="AHV1" t="s">
+        <v>906</v>
+      </c>
+      <c r="AHW1" t="s">
+        <v>907</v>
+      </c>
+      <c r="AHX1" t="s">
+        <v>908</v>
+      </c>
+      <c r="AHY1" t="s">
+        <v>909</v>
+      </c>
+      <c r="AHZ1" t="s">
+        <v>910</v>
+      </c>
+      <c r="AIA1" t="s">
+        <v>911</v>
+      </c>
+      <c r="AIB1" t="s">
+        <v>912</v>
+      </c>
+      <c r="AIC1" t="s">
+        <v>913</v>
+      </c>
+      <c r="AID1" t="s">
+        <v>914</v>
+      </c>
+      <c r="AIE1" t="s">
+        <v>915</v>
+      </c>
+      <c r="AIF1" t="s">
+        <v>916</v>
+      </c>
+      <c r="AIG1" t="s">
+        <v>917</v>
+      </c>
+      <c r="AIH1" t="s">
+        <v>918</v>
+      </c>
+      <c r="AII1" t="s">
+        <v>919</v>
+      </c>
+      <c r="AIJ1" t="s">
+        <v>920</v>
+      </c>
+      <c r="AIK1" t="s">
+        <v>921</v>
+      </c>
+      <c r="AIL1" t="s">
+        <v>922</v>
+      </c>
+      <c r="AIM1" t="s">
+        <v>923</v>
+      </c>
+      <c r="AIN1" t="s">
+        <v>924</v>
+      </c>
+      <c r="AIO1" t="s">
+        <v>925</v>
+      </c>
+      <c r="AIP1" t="s">
+        <v>926</v>
+      </c>
+      <c r="AIQ1" t="s">
+        <v>927</v>
+      </c>
+      <c r="AIR1" t="s">
+        <v>928</v>
+      </c>
+      <c r="AIS1" t="s">
+        <v>929</v>
+      </c>
+      <c r="AIT1" t="s">
+        <v>930</v>
+      </c>
+      <c r="AIU1" t="s">
+        <v>931</v>
+      </c>
+      <c r="AIV1" t="s">
+        <v>932</v>
+      </c>
+      <c r="AIW1" t="s">
+        <v>933</v>
+      </c>
+      <c r="AIX1" t="s">
+        <v>934</v>
+      </c>
+      <c r="AIY1" t="s">
+        <v>935</v>
+      </c>
+      <c r="AIZ1" t="s">
+        <v>936</v>
+      </c>
+      <c r="AJA1" t="s">
+        <v>937</v>
+      </c>
+      <c r="AJB1" t="s">
+        <v>938</v>
+      </c>
+      <c r="AJC1" t="s">
+        <v>939</v>
+      </c>
+      <c r="AJD1" t="s">
+        <v>940</v>
+      </c>
+      <c r="AJE1" t="s">
+        <v>941</v>
+      </c>
+      <c r="AJF1" t="s">
+        <v>942</v>
+      </c>
+      <c r="AJG1" t="s">
+        <v>943</v>
+      </c>
+      <c r="AJH1" t="s">
+        <v>944</v>
+      </c>
+      <c r="AJI1" t="s">
+        <v>945</v>
+      </c>
+      <c r="AJJ1" t="s">
+        <v>946</v>
+      </c>
+      <c r="AJK1" t="s">
+        <v>947</v>
+      </c>
+      <c r="AJL1" t="s">
+        <v>948</v>
+      </c>
+      <c r="AJM1" t="s">
+        <v>949</v>
+      </c>
+      <c r="AJN1" t="s">
+        <v>950</v>
+      </c>
+      <c r="AJO1" t="s">
+        <v>951</v>
+      </c>
+      <c r="AJP1" t="s">
+        <v>952</v>
+      </c>
+      <c r="AJQ1" t="s">
+        <v>953</v>
+      </c>
+      <c r="AJR1" t="s">
+        <v>954</v>
+      </c>
+      <c r="AJS1" t="s">
+        <v>955</v>
+      </c>
+      <c r="AJT1" t="s">
+        <v>956</v>
+      </c>
+      <c r="AJU1" t="s">
+        <v>957</v>
+      </c>
+      <c r="AJV1" t="s">
+        <v>958</v>
+      </c>
+      <c r="AJW1" t="s">
+        <v>959</v>
+      </c>
+      <c r="AJX1" t="s">
+        <v>960</v>
+      </c>
+      <c r="AJY1" t="s">
+        <v>961</v>
+      </c>
+      <c r="AJZ1" t="s">
+        <v>962</v>
+      </c>
+      <c r="AKA1" t="s">
+        <v>963</v>
+      </c>
+      <c r="AKB1" t="s">
+        <v>964</v>
+      </c>
+      <c r="AKC1" t="s">
+        <v>965</v>
+      </c>
+      <c r="AKD1" t="s">
+        <v>966</v>
+      </c>
+      <c r="AKE1" t="s">
+        <v>967</v>
+      </c>
+      <c r="AKF1" t="s">
+        <v>968</v>
+      </c>
+      <c r="AKG1" t="s">
+        <v>969</v>
+      </c>
+      <c r="AKH1" t="s">
+        <v>970</v>
+      </c>
+      <c r="AKI1" t="s">
+        <v>971</v>
+      </c>
+      <c r="AKJ1" t="s">
+        <v>972</v>
+      </c>
+      <c r="AKK1" t="s">
+        <v>973</v>
+      </c>
+      <c r="AKL1" t="s">
+        <v>974</v>
+      </c>
+      <c r="AKM1" t="s">
+        <v>975</v>
+      </c>
+      <c r="AKN1" t="s">
+        <v>976</v>
+      </c>
+      <c r="AKO1" t="s">
+        <v>977</v>
+      </c>
+      <c r="AKP1" t="s">
+        <v>978</v>
+      </c>
+      <c r="AKQ1" t="s">
+        <v>979</v>
+      </c>
+      <c r="AKR1" t="s">
+        <v>980</v>
+      </c>
+      <c r="AKS1" t="s">
+        <v>981</v>
+      </c>
+      <c r="AKT1" t="s">
+        <v>982</v>
+      </c>
+      <c r="AKU1" t="s">
+        <v>983</v>
+      </c>
+      <c r="AKV1" t="s">
+        <v>984</v>
+      </c>
+      <c r="AKW1" t="s">
+        <v>985</v>
+      </c>
+      <c r="AKX1" t="s">
+        <v>986</v>
+      </c>
+      <c r="AKY1" t="s">
         <v>850</v>
-      </c>
-      <c r="ZH1" t="s">
-        <v>851</v>
-      </c>
-      <c r="ZI1" t="s">
-        <v>852</v>
-      </c>
-      <c r="ZJ1" t="s">
-        <v>853</v>
-      </c>
-      <c r="ZK1" t="s">
-        <v>854</v>
-      </c>
-      <c r="ZL1" t="s">
-        <v>855</v>
-      </c>
-      <c r="ZM1" t="s">
-        <v>856</v>
-      </c>
-      <c r="ZN1" t="s">
-        <v>857</v>
-      </c>
-      <c r="ZO1" t="s">
-        <v>858</v>
-      </c>
-      <c r="ZP1" t="s">
-        <v>859</v>
-      </c>
-      <c r="ZQ1" t="s">
-        <v>860</v>
-      </c>
-      <c r="ZR1" t="s">
-        <v>861</v>
-      </c>
-      <c r="ZS1" t="s">
-        <v>862</v>
-      </c>
-      <c r="ZT1" t="s">
-        <v>863</v>
-      </c>
-      <c r="ZU1" t="s">
-        <v>864</v>
-      </c>
-      <c r="ZV1" t="s">
-        <v>865</v>
-      </c>
-      <c r="ZW1" t="s">
-        <v>866</v>
-      </c>
-      <c r="ZX1" t="s">
-        <v>867</v>
-      </c>
-      <c r="ZY1" t="s">
-        <v>868</v>
-      </c>
-      <c r="ZZ1" t="s">
-        <v>869</v>
-      </c>
-      <c r="AAA1" t="s">
-        <v>870</v>
-      </c>
-      <c r="AAB1" t="s">
-        <v>871</v>
-      </c>
-      <c r="AAC1" t="s">
-        <v>872</v>
-      </c>
-      <c r="AAD1" t="s">
-        <v>873</v>
-      </c>
-      <c r="AAE1" t="s">
-        <v>874</v>
-      </c>
-      <c r="AAF1" t="s">
-        <v>875</v>
-      </c>
-      <c r="AAG1" t="s">
-        <v>876</v>
-      </c>
-      <c r="AAH1" t="s">
-        <v>877</v>
-      </c>
-      <c r="AAI1" t="s">
-        <v>878</v>
-      </c>
-      <c r="AAJ1" t="s">
-        <v>879</v>
-      </c>
-      <c r="AAK1" t="s">
-        <v>880</v>
-      </c>
-      <c r="AAL1" t="s">
-        <v>881</v>
-      </c>
-      <c r="AAM1" t="s">
-        <v>882</v>
-      </c>
-      <c r="AAN1" t="s">
-        <v>883</v>
-      </c>
-      <c r="AAO1" t="s">
-        <v>884</v>
-      </c>
-      <c r="AAP1" t="s">
-        <v>885</v>
-      </c>
-      <c r="AAQ1" t="s">
-        <v>886</v>
-      </c>
-      <c r="AAR1" t="s">
-        <v>887</v>
-      </c>
-      <c r="AAS1" t="s">
-        <v>888</v>
-      </c>
-      <c r="AAT1" t="s">
-        <v>889</v>
-      </c>
-      <c r="AAU1" t="s">
-        <v>890</v>
-      </c>
-      <c r="AAV1" t="s">
-        <v>891</v>
-      </c>
-      <c r="AAW1" t="s">
-        <v>892</v>
-      </c>
-      <c r="AAX1" t="s">
-        <v>893</v>
-      </c>
-      <c r="AAY1" t="s">
-        <v>894</v>
-      </c>
-      <c r="AAZ1" t="s">
-        <v>895</v>
-      </c>
-      <c r="ABA1" t="s">
-        <v>896</v>
-      </c>
-      <c r="ABB1" t="s">
-        <v>897</v>
-      </c>
-      <c r="ABC1" t="s">
-        <v>898</v>
-      </c>
-      <c r="ABD1" t="s">
-        <v>899</v>
-      </c>
-      <c r="ABE1" t="s">
-        <v>900</v>
-      </c>
-      <c r="ABF1" t="s">
-        <v>901</v>
-      </c>
-      <c r="ABG1" t="s">
-        <v>902</v>
-      </c>
-      <c r="ABH1" t="s">
-        <v>903</v>
-      </c>
-      <c r="ABI1" t="s">
-        <v>904</v>
-      </c>
-      <c r="ABJ1" t="s">
-        <v>905</v>
-      </c>
-      <c r="ABK1" t="s">
-        <v>906</v>
-      </c>
-      <c r="ABL1" t="s">
-        <v>907</v>
-      </c>
-      <c r="ABM1" t="s">
-        <v>908</v>
-      </c>
-      <c r="ABN1" t="s">
-        <v>909</v>
-      </c>
-      <c r="ABO1" t="s">
-        <v>910</v>
-      </c>
-      <c r="ABP1" t="s">
-        <v>911</v>
-      </c>
-      <c r="ABQ1" t="s">
-        <v>912</v>
-      </c>
-      <c r="ABR1" t="s">
-        <v>913</v>
-      </c>
-      <c r="ABS1" t="s">
-        <v>914</v>
-      </c>
-      <c r="ABT1" t="s">
-        <v>915</v>
-      </c>
-      <c r="ABU1" t="s">
-        <v>916</v>
-      </c>
-      <c r="ABV1" t="s">
-        <v>917</v>
-      </c>
-      <c r="ABW1" t="s">
-        <v>918</v>
-      </c>
-      <c r="ABX1" t="s">
-        <v>919</v>
-      </c>
-      <c r="ABY1" t="s">
-        <v>920</v>
-      </c>
-      <c r="ABZ1" t="s">
-        <v>921</v>
-      </c>
-      <c r="ACA1" t="s">
-        <v>922</v>
-      </c>
-      <c r="ACB1" t="s">
-        <v>923</v>
-      </c>
-      <c r="ACC1" t="s">
-        <v>924</v>
-      </c>
-      <c r="ACD1" t="s">
-        <v>925</v>
-      </c>
-      <c r="ACE1" t="s">
-        <v>926</v>
-      </c>
-      <c r="ACF1" t="s">
-        <v>927</v>
-      </c>
-      <c r="ACG1" t="s">
-        <v>928</v>
-      </c>
-      <c r="ACH1" t="s">
-        <v>929</v>
-      </c>
-      <c r="ACI1" t="s">
-        <v>930</v>
-      </c>
-      <c r="ACJ1" t="s">
-        <v>931</v>
-      </c>
-      <c r="ACK1" t="s">
-        <v>932</v>
-      </c>
-      <c r="ACL1" t="s">
-        <v>933</v>
-      </c>
-      <c r="ACM1" t="s">
-        <v>934</v>
-      </c>
-      <c r="ACN1" t="s">
-        <v>935</v>
-      </c>
-      <c r="ACO1" t="s">
-        <v>936</v>
-      </c>
-      <c r="ACP1" t="s">
-        <v>937</v>
-      </c>
-      <c r="ACQ1" t="s">
-        <v>938</v>
-      </c>
-      <c r="ACR1" t="s">
-        <v>939</v>
-      </c>
-      <c r="ACS1" t="s">
-        <v>940</v>
-      </c>
-      <c r="ACT1" t="s">
-        <v>941</v>
-      </c>
-      <c r="ACU1" t="s">
-        <v>942</v>
-      </c>
-      <c r="ACV1" t="s">
-        <v>943</v>
-      </c>
-      <c r="ACW1" t="s">
-        <v>944</v>
-      </c>
-      <c r="ACX1" t="s">
-        <v>945</v>
-      </c>
-      <c r="ACY1" t="s">
-        <v>946</v>
-      </c>
-      <c r="ACZ1" t="s">
-        <v>947</v>
-      </c>
-      <c r="ADA1" t="s">
-        <v>948</v>
-      </c>
-      <c r="ADB1" t="s">
-        <v>949</v>
-      </c>
-      <c r="ADC1" t="s">
-        <v>950</v>
-      </c>
-      <c r="ADD1" t="s">
-        <v>951</v>
-      </c>
-      <c r="ADE1" t="s">
-        <v>952</v>
-      </c>
-      <c r="ADF1" t="s">
-        <v>953</v>
-      </c>
-      <c r="ADG1" t="s">
-        <v>954</v>
-      </c>
-      <c r="ADH1" t="s">
-        <v>955</v>
-      </c>
-      <c r="ADI1" t="s">
-        <v>956</v>
-      </c>
-      <c r="ADJ1" t="s">
-        <v>957</v>
-      </c>
-      <c r="ADK1" t="s">
-        <v>958</v>
-      </c>
-      <c r="ADL1" t="s">
-        <v>959</v>
-      </c>
-      <c r="ADM1" t="s">
-        <v>960</v>
-      </c>
-      <c r="ADN1" t="s">
-        <v>961</v>
-      </c>
-      <c r="ADO1" t="s">
-        <v>962</v>
-      </c>
-      <c r="ADP1" t="s">
-        <v>963</v>
-      </c>
-      <c r="ADQ1" t="s">
-        <v>964</v>
-      </c>
-      <c r="ADR1" t="s">
-        <v>965</v>
-      </c>
-      <c r="ADS1" t="s">
-        <v>966</v>
-      </c>
-      <c r="ADT1" t="s">
-        <v>967</v>
-      </c>
-      <c r="ADU1" t="s">
-        <v>968</v>
-      </c>
-      <c r="ADV1" t="s">
-        <v>969</v>
-      </c>
-      <c r="ADW1" t="s">
-        <v>970</v>
-      </c>
-      <c r="ADX1" t="s">
-        <v>971</v>
-      </c>
-      <c r="ADY1" t="s">
-        <v>972</v>
-      </c>
-      <c r="ADZ1" t="s">
-        <v>973</v>
-      </c>
-      <c r="AEA1" t="s">
-        <v>974</v>
-      </c>
-      <c r="AEB1" t="s">
-        <v>975</v>
-      </c>
-      <c r="AEC1" t="s">
-        <v>976</v>
-      </c>
-      <c r="AED1" t="s">
-        <v>977</v>
-      </c>
-      <c r="AEE1" t="s">
-        <v>978</v>
-      </c>
-      <c r="AEF1" t="s">
-        <v>979</v>
-      </c>
-      <c r="AEG1" t="s">
-        <v>980</v>
-      </c>
-      <c r="AEH1" t="s">
-        <v>981</v>
-      </c>
-      <c r="AEI1" t="s">
-        <v>982</v>
-      </c>
-      <c r="AEJ1" t="s">
-        <v>983</v>
-      </c>
-      <c r="AEK1" s="1" t="s">
-        <v>985</v>
-      </c>
-      <c r="AEL1" t="s">
-        <v>986</v>
-      </c>
-      <c r="AEM1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AEN1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AEO1" t="s">
-        <v>2</v>
-      </c>
-      <c r="AEP1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AEQ1" t="s">
-        <v>4</v>
-      </c>
-      <c r="AER1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AES1" t="s">
-        <v>6</v>
-      </c>
-      <c r="AET1" t="s">
-        <v>7</v>
-      </c>
-      <c r="AEU1" t="s">
-        <v>8</v>
-      </c>
-      <c r="AEV1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AEW1" t="s">
-        <v>10</v>
-      </c>
-      <c r="AEX1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AEY1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AEZ1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AFA1" t="s">
-        <v>14</v>
-      </c>
-      <c r="AFB1" t="s">
-        <v>15</v>
-      </c>
-      <c r="AFC1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AFD1" t="s">
-        <v>17</v>
-      </c>
-      <c r="AFE1" t="s">
-        <v>18</v>
-      </c>
-      <c r="AFF1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AFG1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AFH1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AFI1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AFJ1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AFK1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AFL1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AFM1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AFN1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AFO1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AFP1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AFQ1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AFR1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AFS1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AFT1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AFU1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AFV1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AFW1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AFX1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AFY1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AFZ1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AGA1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AGB1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AGC1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AGD1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AGE1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AGF1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AGG1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AGH1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AGI1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AGJ1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AGK1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AGL1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AGM1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AGN1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AGO1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AGP1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AGQ1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AGR1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AGS1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AGT1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AGU1" t="s">
-        <v>60</v>
-      </c>
-      <c r="AGV1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AGW1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AGX1" t="s">
-        <v>63</v>
-      </c>
-      <c r="AGY1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AGZ1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AHA1" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="AHB1" t="s">
-        <v>101</v>
-      </c>
-      <c r="AHC1" t="s">
-        <v>102</v>
-      </c>
-      <c r="AHD1" t="s">
-        <v>103</v>
-      </c>
-      <c r="AHE1" t="s">
-        <v>104</v>
-      </c>
-      <c r="AHF1" t="s">
-        <v>105</v>
-      </c>
-      <c r="AHG1" t="s">
-        <v>106</v>
-      </c>
-      <c r="AHH1" t="s">
-        <v>107</v>
-      </c>
-      <c r="AHI1" t="s">
-        <v>108</v>
-      </c>
-      <c r="AHJ1" t="s">
-        <v>109</v>
-      </c>
-      <c r="AHK1" t="s">
-        <v>110</v>
-      </c>
-      <c r="AHL1" t="s">
-        <v>111</v>
-      </c>
-      <c r="AHM1" t="s">
-        <v>112</v>
-      </c>
-      <c r="AHN1" t="s">
-        <v>113</v>
-      </c>
-      <c r="AHO1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AHP1" t="s">
-        <v>115</v>
-      </c>
-      <c r="AHQ1" t="s">
-        <v>116</v>
-      </c>
-      <c r="AHR1" t="s">
-        <v>117</v>
-      </c>
-      <c r="AHS1" t="s">
-        <v>118</v>
-      </c>
-      <c r="AHT1" t="s">
-        <v>119</v>
-      </c>
-      <c r="AHU1" t="s">
-        <v>120</v>
-      </c>
-      <c r="AHV1" t="s">
-        <v>121</v>
-      </c>
-      <c r="AHW1" t="s">
-        <v>122</v>
-      </c>
-      <c r="AHX1" t="s">
-        <v>123</v>
-      </c>
-      <c r="AHY1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AHZ1" t="s">
-        <v>125</v>
-      </c>
-      <c r="AIA1" t="s">
-        <v>126</v>
-      </c>
-      <c r="AIB1" t="s">
-        <v>127</v>
-      </c>
-      <c r="AIC1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AID1" t="s">
-        <v>129</v>
-      </c>
-      <c r="AIE1" t="s">
-        <v>130</v>
-      </c>
-      <c r="AIF1" t="s">
-        <v>131</v>
-      </c>
-      <c r="AIG1" t="s">
-        <v>132</v>
-      </c>
-      <c r="AIH1" t="s">
-        <v>133</v>
-      </c>
-      <c r="AII1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AIJ1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AIK1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AIL1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AIM1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AIN1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AIO1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AIP1" t="s">
-        <v>73</v>
-      </c>
-      <c r="AIQ1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AIR1" t="s">
-        <v>75</v>
-      </c>
-      <c r="AIS1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AIT1" t="s">
-        <v>77</v>
-      </c>
-      <c r="AIU1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AIV1" t="s">
-        <v>79</v>
-      </c>
-      <c r="AIW1" t="s">
-        <v>80</v>
-      </c>
-      <c r="AIX1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AIY1" t="s">
-        <v>82</v>
-      </c>
-      <c r="AIZ1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AJA1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AJB1" t="s">
-        <v>85</v>
-      </c>
-      <c r="AJC1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AJD1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AJE1" t="s">
-        <v>88</v>
-      </c>
-      <c r="AJF1" t="s">
-        <v>89</v>
-      </c>
-      <c r="AJG1" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJH1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AJI1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AJJ1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AJK1" t="s">
-        <v>94</v>
-      </c>
-      <c r="AJL1" t="s">
-        <v>95</v>
-      </c>
-      <c r="AJM1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AJN1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AJO1" t="s">
-        <v>98</v>
-      </c>
-      <c r="AJP1" t="s">
-        <v>99</v>
-      </c>
-      <c r="AJQ1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AJR1" t="s">
-        <v>134</v>
-      </c>
-      <c r="AJS1" t="s">
-        <v>136</v>
-      </c>
-      <c r="AJT1" t="s">
-        <v>137</v>
-      </c>
-      <c r="AJU1" t="s">
-        <v>138</v>
-      </c>
-      <c r="AJV1" t="s">
-        <v>139</v>
-      </c>
-      <c r="AJW1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AJX1" t="s">
-        <v>141</v>
-      </c>
-      <c r="AJY1" t="s">
-        <v>142</v>
-      </c>
-      <c r="AJZ1" t="s">
-        <v>143</v>
-      </c>
-      <c r="AKA1" t="s">
-        <v>144</v>
-      </c>
-      <c r="AKB1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AKC1" t="s">
-        <v>146</v>
-      </c>
-      <c r="AKD1" t="s">
-        <v>147</v>
-      </c>
-      <c r="AKE1" t="s">
-        <v>148</v>
-      </c>
-      <c r="AKF1" t="s">
-        <v>149</v>
-      </c>
-      <c r="AKG1" t="s">
-        <v>150</v>
-      </c>
-      <c r="AKH1" t="s">
-        <v>151</v>
-      </c>
-      <c r="AKI1" t="s">
-        <v>152</v>
-      </c>
-      <c r="AKJ1" t="s">
-        <v>153</v>
-      </c>
-      <c r="AKK1" t="s">
-        <v>154</v>
-      </c>
-      <c r="AKL1" t="s">
-        <v>155</v>
-      </c>
-      <c r="AKM1" t="s">
-        <v>156</v>
-      </c>
-      <c r="AKN1" t="s">
-        <v>157</v>
-      </c>
-      <c r="AKO1" t="s">
-        <v>158</v>
-      </c>
-      <c r="AKP1" t="s">
-        <v>159</v>
-      </c>
-      <c r="AKQ1" t="s">
-        <v>160</v>
-      </c>
-      <c r="AKR1" t="s">
-        <v>161</v>
-      </c>
-      <c r="AKS1" t="s">
-        <v>162</v>
-      </c>
-      <c r="AKT1" t="s">
-        <v>163</v>
-      </c>
-      <c r="AKU1" t="s">
-        <v>164</v>
-      </c>
-      <c r="AKV1" t="s">
-        <v>165</v>
-      </c>
-      <c r="AKW1" t="s">
-        <v>166</v>
-      </c>
-      <c r="AKX1" t="s">
-        <v>167</v>
-      </c>
-      <c r="AKY1" t="s">
-        <v>984</v>
       </c>
     </row>
   </sheetData>
